--- a/biology/Botanique/Jardin_du_Modeste_administrateur/Jardin_du_Modeste_administrateur.xlsx
+++ b/biology/Botanique/Jardin_du_Modeste_administrateur/Jardin_du_Modeste_administrateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin du Modeste administrateur  (en chinois simplifié : 拙政园 ; chinois traditionnel : 拙政園 ; pinyin : Zhuōzhèng Yuán) ou le jardin de la Politique des simples est un jardin chinois situé à Suzhou, en Chine.
@@ -513,9 +525,11 @@
           <t>Wen Zhengming</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le peintre Wen Zhengming y possédait un studio. En 1535, il y réalise un album de trente-et-une vues du jardin, chacune accompagnée d'un poème et d'une description. En 1551, il compose un second album de huit vues[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le peintre Wen Zhengming y possédait un studio. En 1535, il y réalise un album de trente-et-une vues du jardin, chacune accompagnée d'un poème et d'une description. En 1551, il compose un second album de huit vues.
 			Wen Zhengmin, feuille de l'album du jardin du Modeste administrateur (1551), Le Pavillon des senteurs lointaines (Yuanxiang tang).
 			Vue actuelle du même pavillon.
 </t>
